--- a/Clean Data Project 3/Excel /Confirmed cases by demographics/Confirm cases dem by race/Dem by race 2023.xlsx
+++ b/Clean Data Project 3/Excel /Confirmed cases by demographics/Confirm cases dem by race/Dem by race 2023.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/plampinstein/utsa/homework/project 3/Clean Data Project 3/Excel /Dem by race/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/plampinstein/utsa/homework/project 3/Data-Analysis---Project-3/Clean Data Project 3/Excel /Confirmed cases by demographics/Confirm cases dem by race/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0999C05-6C70-8E48-8AD5-15D3827C8F30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D058F18-F359-BF45-AEE0-0B79602E2769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3080" yWindow="3740" windowWidth="25640" windowHeight="14200" xr2:uid="{DD79947C-CE86-BA45-AF5C-DFC148EE169E}"/>
   </bookViews>
@@ -36,28 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>January2023</t>
-  </si>
-  <si>
-    <t>February2023</t>
-  </si>
-  <si>
-    <t>March2023</t>
-  </si>
-  <si>
-    <t>April2023</t>
-  </si>
-  <si>
-    <t>Unknown Date 2023</t>
-  </si>
-  <si>
-    <t>Total 2023</t>
-  </si>
-  <si>
-    <t>Month Year</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Asian</t>
   </si>
@@ -77,7 +56,19 @@
     <t>Unknown</t>
   </si>
   <si>
-    <t>Total</t>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>January 2023</t>
+  </si>
+  <si>
+    <t>February 2023</t>
+  </si>
+  <si>
+    <t>March 2023</t>
+  </si>
+  <si>
+    <t>April 2023</t>
   </si>
 </sst>
 </file>
@@ -93,7 +84,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -109,27 +99,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -138,10 +113,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,43 +431,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CC090ED-EB00-5046-A6AE-F87CEF34E6A9}">
-  <dimension ref="A2:H8"/>
+  <dimension ref="A2:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>0</v>
       </c>
       <c r="B3">
         <v>2789</v>
@@ -512,13 +487,10 @@
       <c r="G3">
         <v>16064</v>
       </c>
-      <c r="H3">
-        <v>74718</v>
-      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>1</v>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="B4">
         <v>1421</v>
@@ -538,13 +510,10 @@
       <c r="G4">
         <v>8775</v>
       </c>
-      <c r="H4">
-        <v>42629</v>
-      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>2</v>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="B5">
         <v>870</v>
@@ -564,13 +533,10 @@
       <c r="G5">
         <v>5266</v>
       </c>
-      <c r="H5">
-        <v>26437</v>
-      </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>3</v>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="B6">
         <v>375</v>
@@ -590,61 +556,9 @@
       <c r="G6">
         <v>1689</v>
       </c>
-      <c r="H6">
-        <v>9107</v>
-      </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7">
-        <v>16</v>
-      </c>
-      <c r="D7">
-        <v>174</v>
-      </c>
-      <c r="E7">
-        <v>24</v>
-      </c>
-      <c r="F7">
-        <v>106</v>
-      </c>
-      <c r="G7">
-        <v>108</v>
-      </c>
-      <c r="H7">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1">
-        <v>5460</v>
-      </c>
-      <c r="C8" s="1">
-        <v>18259</v>
-      </c>
-      <c r="D8" s="1">
-        <v>40138</v>
-      </c>
-      <c r="E8" s="1">
-        <v>7947</v>
-      </c>
-      <c r="F8" s="1">
-        <v>49618</v>
-      </c>
-      <c r="G8" s="1">
-        <v>31902</v>
-      </c>
-      <c r="H8" s="1">
-        <v>153324</v>
-      </c>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
